--- a/07122015.xlsx
+++ b/07122015.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="63">
   <si>
     <t>Plan</t>
   </si>
@@ -94,69 +94,15 @@
     <t>P&amp;O: CompSci</t>
   </si>
   <si>
-    <t>Brainstorm</t>
-  </si>
-  <si>
     <t>PERIODE</t>
   </si>
   <si>
     <t>Deadline</t>
   </si>
   <si>
-    <t>Planning</t>
-  </si>
-  <si>
-    <t>Ontwerp</t>
-  </si>
-  <si>
-    <t>Oplossingsuggestie</t>
-  </si>
-  <si>
-    <t>Hard- en</t>
-  </si>
-  <si>
-    <t>software</t>
-  </si>
-  <si>
-    <t>Experiment</t>
-  </si>
-  <si>
-    <t>1 pag.</t>
-  </si>
-  <si>
-    <t>2 pag.</t>
-  </si>
-  <si>
     <t>Tussentijdse</t>
   </si>
   <si>
-    <t>Demonstratie</t>
-  </si>
-  <si>
-    <t>Finaal</t>
-  </si>
-  <si>
-    <t>verslag</t>
-  </si>
-  <si>
-    <t>Tussentijds</t>
-  </si>
-  <si>
-    <t>Finale demo</t>
-  </si>
-  <si>
-    <t>Presentatie</t>
-  </si>
-  <si>
-    <t>Verslag 1 (planning)</t>
-  </si>
-  <si>
-    <t>Verslag 2 (hard-/software)</t>
-  </si>
-  <si>
-    <t>Verslag 3 (experiment)</t>
-  </si>
-  <si>
     <t>ADMINISTRATIE</t>
   </si>
   <si>
@@ -172,9 +118,6 @@
     <t>DELIJKE(N)</t>
   </si>
   <si>
-    <t>Interface HTML5</t>
-  </si>
-  <si>
     <t>TEAM</t>
   </si>
   <si>
@@ -193,37 +136,7 @@
     <t>Intermediate report</t>
   </si>
   <si>
-    <t>Building of Robot</t>
-  </si>
-  <si>
-    <t>Steering Vehicle</t>
-  </si>
-  <si>
-    <t>Sensor Rotation</t>
-  </si>
-  <si>
-    <t>Perform experiments</t>
-  </si>
-  <si>
     <t>Finetuning</t>
-  </si>
-  <si>
-    <t>Manual Driving</t>
-  </si>
-  <si>
-    <t>Connection PC/BrickPi</t>
-  </si>
-  <si>
-    <t>Commando Driving</t>
-  </si>
-  <si>
-    <t>Camera Recognition</t>
-  </si>
-  <si>
-    <t>Following White Line</t>
-  </si>
-  <si>
-    <t>Advanced HTML5 Interface</t>
   </si>
   <si>
     <t>Day</t>
@@ -283,56 +196,89 @@
     <t>Wouter</t>
   </si>
   <si>
-    <t>Kristof</t>
-  </si>
-  <si>
-    <t>Pieter, Wouter, Arne</t>
-  </si>
-  <si>
-    <t>Control Engine</t>
-  </si>
-  <si>
-    <t>Camera Data Conversion</t>
-  </si>
-  <si>
-    <t>Camera Finetuning</t>
-  </si>
-  <si>
     <t>Final report</t>
   </si>
   <si>
-    <t>Frederik, Arne, Kristof</t>
-  </si>
-  <si>
-    <t>Kristof, Arno</t>
-  </si>
-  <si>
-    <t>Arne, Wouter, Pieter</t>
-  </si>
-  <si>
-    <t>Arno, Kristof, Frederik</t>
-  </si>
-  <si>
-    <t>Kristof, Frederik, Pieter</t>
-  </si>
-  <si>
-    <t>Arne, Frederik, Arno</t>
-  </si>
-  <si>
     <t>Arne, Frederik, Kristof</t>
   </si>
   <si>
-    <t>Frederik, Pieter, Wouter</t>
-  </si>
-  <si>
-    <t>Arno, Arne, Wouter</t>
+    <t>Plan tussentijdse</t>
+  </si>
+  <si>
+    <t>demo</t>
+  </si>
+  <si>
+    <t>Tussentijdsverslag</t>
+  </si>
+  <si>
+    <t>10p.</t>
+  </si>
+  <si>
+    <t>Finale</t>
+  </si>
+  <si>
+    <t>Eindverslag</t>
+  </si>
+  <si>
+    <t>20p</t>
+  </si>
+  <si>
+    <t>Robot Adjustments</t>
+  </si>
+  <si>
+    <t>Assignment 1st semester</t>
+  </si>
+  <si>
+    <t>Manual Intervention</t>
+  </si>
+  <si>
+    <t>Packet Server</t>
+  </si>
+  <si>
+    <t>Weighted Graph</t>
+  </si>
+  <si>
+    <t>Shortest path</t>
+  </si>
+  <si>
+    <t>Obstacle detection</t>
+  </si>
+  <si>
+    <t>GUI on all devices</t>
+  </si>
+  <si>
+    <t>Spookserver</t>
+  </si>
+  <si>
+    <t>RESTServer</t>
+  </si>
+  <si>
+    <t>Pieter, Frederik, Arno</t>
+  </si>
+  <si>
+    <t>Pieter, Wouter, Arno</t>
+  </si>
+  <si>
+    <t>Pieter, Wouter</t>
+  </si>
+  <si>
+    <t>Arne, Frederik, Wouter</t>
+  </si>
+  <si>
+    <t>Frederik, Pieter, Kristof</t>
+  </si>
+  <si>
+    <t>Wouter, Pieter, Kristof</t>
+  </si>
+  <si>
+    <t>Optimizing detection algorithms</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1" tint="0.24994659260841701"/>
@@ -362,12 +308,6 @@
       <name val="Corbel"/>
       <family val="2"/>
       <scheme val="major"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="1" tint="0.24994659260841701"/>
-      <name val="Calibri"/>
     </font>
     <font>
       <sz val="12"/>
@@ -544,14 +484,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="3" fontId="9" fillId="0" borderId="3" applyFill="0" applyProtection="0">
+    <xf numFmtId="3" fontId="8" fillId="0" borderId="3" applyFill="0" applyProtection="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
@@ -560,11 +500,11 @@
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="1" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="1" applyNumberFormat="0" applyProtection="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -574,13 +514,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="3" fontId="9" fillId="0" borderId="3" xfId="3">
+    <xf numFmtId="3" fontId="8" fillId="0" borderId="3" xfId="3">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="4">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="4">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="4" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="4" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="5" applyFont="1">
@@ -589,7 +529,7 @@
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="6">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="1" xfId="7">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="1" xfId="7">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -607,34 +547,28 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="6" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="5" applyFont="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="1" xfId="7" applyFont="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="8" fillId="0" borderId="0" xfId="4" applyNumberFormat="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" xfId="6" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="5" applyFont="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="1" xfId="7" applyFont="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="16" fontId="9" fillId="0" borderId="0" xfId="4" applyNumberFormat="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="2" applyFill="1">
@@ -649,19 +583,16 @@
     <xf numFmtId="16" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2" applyFont="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="2" applyFont="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="9" fontId="15" fillId="0" borderId="0" xfId="6" applyFont="1">
+    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" xfId="6" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -675,7 +606,27 @@
     <cellStyle name="Project Headers" xfId="4"/>
     <cellStyle name="Standaard" xfId="0" builtinId="0" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="9">
+  <dxfs count="10">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </right>
+        <bottom style="thin">
+          <color theme="7"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -834,7 +785,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Spin" dx="16" fmlaLink="periode_geselecteerd" max="60" min="1" page="10" val="12"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Spin" dx="16" fmlaLink="periode_geselecteerd" max="60" min="1" page="10" val="13"/>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1119,10 +1070,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:BS36"/>
+  <dimension ref="A2:BS29"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -1137,51 +1088,52 @@
     <col min="9" max="9" width="23.375" style="7" customWidth="1"/>
     <col min="10" max="10" width="4.25" style="1" customWidth="1"/>
     <col min="11" max="22" width="10.625" style="1" customWidth="1"/>
-    <col min="23" max="30" width="2.75" style="1"/>
+    <col min="23" max="23" width="9.875" style="1" customWidth="1"/>
+    <col min="24" max="30" width="2.75" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:71" ht="32.25" customHeight="1" x14ac:dyDescent="0.8">
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="23"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="21"/>
     </row>
     <row r="3" spans="1:71" ht="21" customHeight="1" x14ac:dyDescent="0.8">
-      <c r="B3" s="32"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32"/>
-      <c r="H3" s="20"/>
-      <c r="I3" s="23"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="21"/>
       <c r="K3" s="8" t="s">
         <v>8</v>
       </c>
       <c r="L3" s="8"/>
-      <c r="M3" s="19">
-        <v>12</v>
+      <c r="M3" s="17">
+        <v>13</v>
       </c>
       <c r="P3" s="9"/>
-      <c r="Q3" s="18" t="s">
+      <c r="Q3" s="16" t="s">
         <v>0</v>
       </c>
       <c r="S3" s="10"/>
-      <c r="T3" s="18" t="s">
-        <v>58</v>
+      <c r="T3" s="16" t="s">
+        <v>29</v>
       </c>
       <c r="U3" s="11"/>
       <c r="V3" s="6" t="s">
-        <v>59</v>
+        <v>30</v>
       </c>
       <c r="Z3" s="12"/>
-      <c r="AA3" s="18" t="s">
+      <c r="AA3" s="16" t="s">
         <v>9</v>
       </c>
       <c r="AB3"/>
@@ -1195,14 +1147,14 @@
       </c>
     </row>
     <row r="4" spans="1:71" ht="18.75" customHeight="1" x14ac:dyDescent="0.8">
-      <c r="B4" s="32"/>
-      <c r="C4" s="32"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="32"/>
-      <c r="G4" s="32"/>
-      <c r="H4" s="20"/>
-      <c r="I4" s="23"/>
+      <c r="B4" s="29"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="21"/>
       <c r="AV4" s="1"/>
       <c r="AW4" s="1"/>
       <c r="AX4" s="1"/>
@@ -1232,14 +1184,14 @@
         <v>5</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="J6" s="4"/>
       <c r="K6" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L6" s="4"/>
       <c r="AV6" s="1"/>
@@ -1266,48 +1218,52 @@
         <v>6</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="J7" s="4"/>
-      <c r="K7" s="21">
-        <v>42275</v>
-      </c>
-      <c r="L7" s="21">
-        <v>42282</v>
-      </c>
-      <c r="M7" s="21">
-        <v>42289</v>
-      </c>
-      <c r="N7" s="21">
-        <v>42296</v>
-      </c>
-      <c r="O7" s="21">
-        <v>42303</v>
-      </c>
-      <c r="P7" s="21">
-        <v>42310</v>
-      </c>
-      <c r="Q7" s="21">
-        <v>42317</v>
-      </c>
-      <c r="R7" s="21">
-        <v>42324</v>
-      </c>
-      <c r="S7" s="21">
-        <v>42331</v>
-      </c>
-      <c r="T7" s="21">
-        <v>42338</v>
-      </c>
-      <c r="U7" s="21">
-        <v>42345</v>
-      </c>
-      <c r="V7" s="21">
-        <v>42352</v>
-      </c>
+      <c r="K7" s="19">
+        <v>42409</v>
+      </c>
+      <c r="L7" s="19">
+        <v>42416</v>
+      </c>
+      <c r="M7" s="19">
+        <v>42423</v>
+      </c>
+      <c r="N7" s="19">
+        <v>42430</v>
+      </c>
+      <c r="O7" s="19">
+        <v>42437</v>
+      </c>
+      <c r="P7" s="19">
+        <v>42444</v>
+      </c>
+      <c r="Q7" s="19">
+        <v>42451</v>
+      </c>
+      <c r="R7" s="19">
+        <v>42472</v>
+      </c>
+      <c r="S7" s="19">
+        <v>42479</v>
+      </c>
+      <c r="T7" s="19">
+        <v>42486</v>
+      </c>
+      <c r="U7" s="19">
+        <v>42493</v>
+      </c>
+      <c r="V7" s="19">
+        <v>42500</v>
+      </c>
+      <c r="W7" s="19">
+        <v>42507</v>
+      </c>
+      <c r="X7" s="19"/>
     </row>
     <row r="8" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="3"/>
@@ -1355,6 +1311,10 @@
       <c r="V8" s="3">
         <v>12</v>
       </c>
+      <c r="W8" s="3">
+        <v>13</v>
+      </c>
+      <c r="X8" s="3"/>
       <c r="AE8" s="1"/>
       <c r="AF8" s="1"/>
       <c r="AG8" s="1"/>
@@ -1374,34 +1334,34 @@
       <c r="BS8" s="1"/>
     </row>
     <row r="9" spans="1:71" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="28" t="s">
+      <c r="A9" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="14">
+        <v>1</v>
+      </c>
+      <c r="D9" s="14">
+        <v>1</v>
+      </c>
+      <c r="E9" s="14">
+        <v>1</v>
+      </c>
+      <c r="F9" s="14">
+        <v>1</v>
+      </c>
+      <c r="G9" s="15">
+        <v>1</v>
+      </c>
+      <c r="H9" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="B9" s="29" t="s">
-        <v>42</v>
-      </c>
-      <c r="C9" s="15">
-        <v>1</v>
-      </c>
-      <c r="D9" s="15">
-        <v>2</v>
-      </c>
-      <c r="E9" s="15">
-        <v>1</v>
-      </c>
-      <c r="F9" s="15">
-        <v>1</v>
-      </c>
-      <c r="G9" s="16">
-        <v>1</v>
-      </c>
-      <c r="H9" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="I9" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="P9" s="22"/>
+      <c r="I9" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="P9" s="20"/>
       <c r="AE9" s="1"/>
       <c r="AF9" s="1"/>
       <c r="AG9" s="1"/>
@@ -1420,31 +1380,31 @@
       <c r="AT9" s="1"/>
     </row>
     <row r="10" spans="1:71" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="29" t="s">
-        <v>43</v>
-      </c>
-      <c r="C10" s="15">
-        <v>1</v>
-      </c>
-      <c r="D10" s="15">
-        <v>12</v>
-      </c>
-      <c r="E10" s="15">
-        <v>1</v>
-      </c>
-      <c r="F10" s="15">
-        <v>12</v>
-      </c>
-      <c r="G10" s="16">
-        <v>1</v>
-      </c>
-      <c r="H10" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="I10" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="P10" s="22"/>
+      <c r="B10" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="14">
+        <v>1</v>
+      </c>
+      <c r="D10" s="14">
+        <v>13</v>
+      </c>
+      <c r="E10" s="14">
+        <v>1</v>
+      </c>
+      <c r="F10" s="14">
+        <v>13</v>
+      </c>
+      <c r="G10" s="15">
+        <v>1</v>
+      </c>
+      <c r="H10" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="I10" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="P10" s="20"/>
       <c r="AE10" s="1"/>
       <c r="AF10" s="1"/>
       <c r="AG10" s="1"/>
@@ -1463,31 +1423,31 @@
       <c r="AT10" s="1"/>
     </row>
     <row r="11" spans="1:71" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" s="15">
+      <c r="B11" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="14">
         <v>2</v>
       </c>
-      <c r="D11" s="15">
-        <v>1</v>
-      </c>
-      <c r="E11" s="15">
-        <v>1</v>
-      </c>
-      <c r="F11" s="15">
+      <c r="D11" s="14">
+        <v>4</v>
+      </c>
+      <c r="E11" s="14">
         <v>2</v>
       </c>
-      <c r="G11" s="16">
-        <v>1</v>
-      </c>
-      <c r="H11" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="I11" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="P11" s="22"/>
+      <c r="F11" s="14">
+        <v>4</v>
+      </c>
+      <c r="G11" s="15">
+        <v>1</v>
+      </c>
+      <c r="H11" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="I11" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="P11" s="20"/>
       <c r="AE11" s="1"/>
       <c r="AF11" s="1"/>
       <c r="AG11" s="1"/>
@@ -1506,31 +1466,31 @@
       <c r="AT11" s="1"/>
     </row>
     <row r="12" spans="1:71" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="C12" s="15">
-        <v>1</v>
-      </c>
-      <c r="D12" s="15">
-        <v>2</v>
-      </c>
-      <c r="E12" s="15">
-        <v>1</v>
-      </c>
-      <c r="F12" s="15">
-        <v>2</v>
-      </c>
-      <c r="G12" s="16">
-        <v>1</v>
-      </c>
-      <c r="H12" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="I12" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="P12" s="22"/>
+      <c r="B12" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="14">
+        <v>7</v>
+      </c>
+      <c r="D12" s="14">
+        <v>5</v>
+      </c>
+      <c r="E12" s="14">
+        <v>9</v>
+      </c>
+      <c r="F12" s="14">
+        <v>4</v>
+      </c>
+      <c r="G12" s="15">
+        <v>1</v>
+      </c>
+      <c r="H12" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="I12" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="P12" s="20"/>
       <c r="AE12" s="1"/>
       <c r="AF12" s="1"/>
       <c r="AG12" s="1"/>
@@ -1549,31 +1509,34 @@
       <c r="AT12" s="1"/>
     </row>
     <row r="13" spans="1:71" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="14" t="s">
+      <c r="A13" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="C13" s="14">
+        <v>2</v>
+      </c>
+      <c r="D13" s="14">
+        <v>1</v>
+      </c>
+      <c r="E13" s="14">
+        <v>2</v>
+      </c>
+      <c r="F13" s="14">
+        <v>1</v>
+      </c>
+      <c r="G13" s="15">
+        <v>1</v>
+      </c>
+      <c r="H13" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="C13" s="15">
-        <v>2</v>
-      </c>
-      <c r="D13" s="15">
-        <v>2</v>
-      </c>
-      <c r="E13" s="15">
-        <v>3</v>
-      </c>
-      <c r="F13" s="15">
-        <v>1</v>
-      </c>
-      <c r="G13" s="16">
-        <v>1</v>
-      </c>
-      <c r="H13" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="I13" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="P13" s="22"/>
+      <c r="I13" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="P13" s="20"/>
       <c r="AE13" s="1"/>
       <c r="AF13" s="1"/>
       <c r="AG13" s="1"/>
@@ -1592,31 +1555,31 @@
       <c r="AT13" s="1"/>
     </row>
     <row r="14" spans="1:71" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="C14" s="15">
-        <v>3</v>
-      </c>
-      <c r="D14" s="15">
+      <c r="B14" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="14">
         <v>2</v>
       </c>
-      <c r="E14" s="15">
-        <v>4</v>
-      </c>
-      <c r="F14" s="15">
-        <v>1</v>
-      </c>
-      <c r="G14" s="16">
-        <v>1</v>
-      </c>
-      <c r="H14" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="I14" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="P14" s="22"/>
+      <c r="D14" s="14">
+        <v>11</v>
+      </c>
+      <c r="E14" s="14">
+        <v>2</v>
+      </c>
+      <c r="F14" s="14">
+        <v>12</v>
+      </c>
+      <c r="G14" s="15">
+        <v>0.95</v>
+      </c>
+      <c r="H14" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="I14" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="P14" s="20"/>
       <c r="AE14" s="1"/>
       <c r="AF14" s="1"/>
       <c r="AG14" s="1"/>
@@ -1634,32 +1597,35 @@
       <c r="AS14" s="1"/>
       <c r="AT14" s="1"/>
     </row>
-    <row r="15" spans="1:71" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="29" t="s">
-        <v>44</v>
-      </c>
-      <c r="C15" s="15">
+    <row r="15" spans="1:71" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="C15" s="14">
         <v>2</v>
       </c>
-      <c r="D15" s="15">
-        <v>4</v>
-      </c>
-      <c r="E15" s="15">
-        <v>4</v>
-      </c>
-      <c r="F15" s="15">
+      <c r="D15" s="14">
+        <v>5</v>
+      </c>
+      <c r="E15" s="14">
         <v>2</v>
       </c>
-      <c r="G15" s="16">
-        <v>1</v>
-      </c>
-      <c r="H15" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="I15" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="P15" s="22"/>
+      <c r="F15" s="14">
+        <v>11</v>
+      </c>
+      <c r="G15" s="15">
+        <v>0.9</v>
+      </c>
+      <c r="H15" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="I15" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="P15" s="20"/>
       <c r="AE15" s="1"/>
       <c r="AF15" s="1"/>
       <c r="AG15" s="1"/>
@@ -1678,31 +1644,31 @@
       <c r="AT15" s="1"/>
     </row>
     <row r="16" spans="1:71" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="29" t="s">
-        <v>71</v>
-      </c>
-      <c r="C16" s="15">
-        <v>7</v>
-      </c>
-      <c r="D16" s="15">
-        <v>4</v>
-      </c>
-      <c r="E16" s="15">
-        <v>4</v>
-      </c>
-      <c r="F16" s="15">
-        <v>8</v>
-      </c>
-      <c r="G16" s="16">
-        <v>1</v>
-      </c>
-      <c r="H16" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="I16" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="P16" s="22"/>
+      <c r="B16" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="C16" s="14">
+        <v>2</v>
+      </c>
+      <c r="D16" s="14">
+        <v>1</v>
+      </c>
+      <c r="E16" s="14">
+        <v>2</v>
+      </c>
+      <c r="F16" s="14">
+        <v>1</v>
+      </c>
+      <c r="G16" s="15">
+        <v>1</v>
+      </c>
+      <c r="H16" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="I16" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="P16" s="20"/>
       <c r="AE16" s="1"/>
       <c r="AF16" s="1"/>
       <c r="AG16" s="1"/>
@@ -1720,35 +1686,32 @@
       <c r="AS16" s="1"/>
       <c r="AT16" s="1"/>
     </row>
-    <row r="17" spans="1:46" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="28" t="s">
-        <v>34</v>
-      </c>
-      <c r="B17" s="29" t="s">
-        <v>45</v>
-      </c>
-      <c r="C17" s="15">
+    <row r="17" spans="2:46" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="C17" s="14">
+        <v>4</v>
+      </c>
+      <c r="D17" s="14">
         <v>2</v>
       </c>
-      <c r="D17" s="15">
-        <v>2</v>
-      </c>
-      <c r="E17" s="15">
-        <v>2</v>
-      </c>
-      <c r="F17" s="15">
-        <v>2</v>
-      </c>
-      <c r="G17" s="16">
-        <v>1</v>
-      </c>
-      <c r="H17" s="30" t="s">
-        <v>60</v>
-      </c>
-      <c r="I17" s="30" t="s">
-        <v>61</v>
-      </c>
-      <c r="P17" s="22"/>
+      <c r="E17" s="14">
+        <v>4</v>
+      </c>
+      <c r="F17" s="14">
+        <v>9</v>
+      </c>
+      <c r="G17" s="15">
+        <v>1</v>
+      </c>
+      <c r="H17" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="I17" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="P17" s="20"/>
       <c r="AE17" s="1"/>
       <c r="AF17" s="1"/>
       <c r="AG17" s="1"/>
@@ -1766,32 +1729,32 @@
       <c r="AS17" s="1"/>
       <c r="AT17" s="1"/>
     </row>
-    <row r="18" spans="1:46" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="29" t="s">
-        <v>68</v>
-      </c>
-      <c r="C18" s="17">
-        <v>2</v>
-      </c>
-      <c r="D18" s="15">
-        <v>2</v>
-      </c>
-      <c r="E18" s="15">
-        <v>2</v>
-      </c>
-      <c r="F18" s="15">
-        <v>2</v>
-      </c>
-      <c r="G18" s="16">
-        <v>1</v>
-      </c>
-      <c r="H18" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="I18" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="P18" s="22"/>
+    <row r="18" spans="2:46" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="C18" s="14">
+        <v>3</v>
+      </c>
+      <c r="D18" s="14">
+        <v>3</v>
+      </c>
+      <c r="E18" s="14">
+        <v>4</v>
+      </c>
+      <c r="F18" s="14">
+        <v>7</v>
+      </c>
+      <c r="G18" s="15">
+        <v>1</v>
+      </c>
+      <c r="H18" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="I18" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="P18" s="20"/>
       <c r="AE18" s="1"/>
       <c r="AF18" s="1"/>
       <c r="AG18" s="1"/>
@@ -1809,32 +1772,32 @@
       <c r="AS18" s="1"/>
       <c r="AT18" s="1"/>
     </row>
-    <row r="19" spans="1:46" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="29" t="s">
-        <v>46</v>
-      </c>
-      <c r="C19" s="31">
+    <row r="19" spans="2:46" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="C19" s="14">
+        <v>4</v>
+      </c>
+      <c r="D19" s="14">
         <v>3</v>
       </c>
-      <c r="D19" s="15">
-        <v>2</v>
-      </c>
-      <c r="E19" s="15">
+      <c r="E19" s="14">
         <v>4</v>
       </c>
-      <c r="F19" s="15">
-        <v>2</v>
-      </c>
-      <c r="G19" s="16">
-        <v>0.95</v>
-      </c>
-      <c r="H19" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="I19" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="P19" s="22"/>
+      <c r="F19" s="14">
+        <v>5</v>
+      </c>
+      <c r="G19" s="15">
+        <v>1</v>
+      </c>
+      <c r="H19" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="I19" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="P19" s="20"/>
       <c r="AE19" s="1"/>
       <c r="AF19" s="1"/>
       <c r="AG19" s="1"/>
@@ -1852,32 +1815,32 @@
       <c r="AS19" s="1"/>
       <c r="AT19" s="1"/>
     </row>
-    <row r="20" spans="1:46" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="29" t="s">
-        <v>47</v>
-      </c>
-      <c r="C20" s="15">
+    <row r="20" spans="2:46" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="C20" s="14">
+        <v>7</v>
+      </c>
+      <c r="D20" s="14">
+        <v>2</v>
+      </c>
+      <c r="E20" s="14">
+        <v>7</v>
+      </c>
+      <c r="F20" s="14">
         <v>3</v>
       </c>
-      <c r="D20" s="15">
-        <v>3</v>
-      </c>
-      <c r="E20" s="15">
-        <v>6</v>
-      </c>
-      <c r="F20" s="15">
-        <v>3</v>
-      </c>
-      <c r="G20" s="16">
-        <v>0.6</v>
-      </c>
-      <c r="H20" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="I20" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="P20" s="22"/>
+      <c r="G20" s="15">
+        <v>1</v>
+      </c>
+      <c r="H20" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="I20" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="P20" s="20"/>
       <c r="AE20" s="1"/>
       <c r="AF20" s="1"/>
       <c r="AG20" s="1"/>
@@ -1895,32 +1858,32 @@
       <c r="AS20" s="1"/>
       <c r="AT20" s="1"/>
     </row>
-    <row r="21" spans="1:46" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="29" t="s">
-        <v>48</v>
-      </c>
-      <c r="C21" s="15">
-        <v>4</v>
-      </c>
-      <c r="D21" s="15">
+    <row r="21" spans="2:46" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="C21" s="14">
+        <v>9</v>
+      </c>
+      <c r="D21" s="14">
+        <v>3</v>
+      </c>
+      <c r="E21" s="14">
         <v>6</v>
       </c>
-      <c r="E21" s="15">
-        <v>4</v>
-      </c>
-      <c r="F21" s="15">
-        <v>7</v>
-      </c>
-      <c r="G21" s="16">
-        <v>1</v>
-      </c>
-      <c r="H21" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="I21" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="P21" s="22"/>
+      <c r="F21" s="14">
+        <v>6</v>
+      </c>
+      <c r="G21" s="15">
+        <v>0.9</v>
+      </c>
+      <c r="H21" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="I21" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="P21" s="20"/>
       <c r="AE21" s="1"/>
       <c r="AF21" s="1"/>
       <c r="AG21" s="1"/>
@@ -1938,32 +1901,32 @@
       <c r="AS21" s="1"/>
       <c r="AT21" s="1"/>
     </row>
-    <row r="22" spans="1:46" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="29" t="s">
-        <v>49</v>
-      </c>
-      <c r="C22" s="15">
+    <row r="22" spans="2:46" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="27" t="s">
+        <v>54</v>
+      </c>
+      <c r="C22" s="14">
+        <v>4</v>
+      </c>
+      <c r="D22" s="14">
+        <v>6</v>
+      </c>
+      <c r="E22" s="14">
         <v>5</v>
       </c>
-      <c r="D22" s="15">
-        <v>1</v>
-      </c>
-      <c r="E22" s="15">
+      <c r="F22" s="14">
         <v>5</v>
       </c>
-      <c r="F22" s="15">
-        <v>7</v>
-      </c>
-      <c r="G22" s="16">
-        <v>0.75</v>
-      </c>
-      <c r="H22" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="I22" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="P22" s="22"/>
+      <c r="G22" s="15">
+        <v>1</v>
+      </c>
+      <c r="H22" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="I22" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="P22" s="20"/>
       <c r="AE22" s="1"/>
       <c r="AF22" s="1"/>
       <c r="AG22" s="1"/>
@@ -1981,35 +1944,32 @@
       <c r="AS22" s="1"/>
       <c r="AT22" s="1"/>
     </row>
-    <row r="23" spans="1:46" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="28" t="s">
+    <row r="23" spans="2:46" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="C23" s="14">
+        <v>4</v>
+      </c>
+      <c r="D23" s="14">
+        <v>2</v>
+      </c>
+      <c r="E23" s="14">
+        <v>3</v>
+      </c>
+      <c r="F23" s="14">
+        <v>2</v>
+      </c>
+      <c r="G23" s="15">
+        <v>1</v>
+      </c>
+      <c r="H23" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="B23" s="29" t="s">
-        <v>50</v>
-      </c>
-      <c r="C23" s="15">
-        <v>2</v>
-      </c>
-      <c r="D23" s="15">
-        <v>3</v>
-      </c>
-      <c r="E23" s="15">
-        <v>2</v>
-      </c>
-      <c r="F23" s="15">
-        <v>5</v>
-      </c>
-      <c r="G23" s="16">
-        <v>1</v>
-      </c>
-      <c r="H23" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="I23" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="P23" s="22"/>
+      <c r="I23" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="P23" s="20"/>
       <c r="AE23" s="1"/>
       <c r="AF23" s="1"/>
       <c r="AG23" s="1"/>
@@ -2027,32 +1987,32 @@
       <c r="AS23" s="1"/>
       <c r="AT23" s="1"/>
     </row>
-    <row r="24" spans="1:46" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="29" t="s">
-        <v>51</v>
-      </c>
-      <c r="C24" s="15">
-        <v>2</v>
-      </c>
-      <c r="D24" s="15">
-        <v>1</v>
-      </c>
-      <c r="E24" s="15">
-        <v>2</v>
-      </c>
-      <c r="F24" s="15">
-        <v>1</v>
-      </c>
-      <c r="G24" s="16">
-        <v>1</v>
-      </c>
-      <c r="H24" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="I24" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="P24" s="22"/>
+    <row r="24" spans="2:46" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="27" t="s">
+        <v>62</v>
+      </c>
+      <c r="C24" s="14">
+        <v>5</v>
+      </c>
+      <c r="D24" s="14">
+        <v>6</v>
+      </c>
+      <c r="E24" s="14">
+        <v>6</v>
+      </c>
+      <c r="F24" s="14">
+        <v>6</v>
+      </c>
+      <c r="G24" s="15">
+        <v>1</v>
+      </c>
+      <c r="H24" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="I24" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="P24" s="20"/>
       <c r="AE24" s="1"/>
       <c r="AF24" s="1"/>
       <c r="AG24" s="1"/>
@@ -2070,509 +2030,200 @@
       <c r="AS24" s="1"/>
       <c r="AT24" s="1"/>
     </row>
-    <row r="25" spans="1:46" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="29" t="s">
-        <v>38</v>
-      </c>
-      <c r="C25" s="15">
-        <v>3</v>
-      </c>
-      <c r="D25" s="15">
-        <v>2</v>
-      </c>
-      <c r="E25" s="15">
-        <v>2</v>
-      </c>
-      <c r="F25" s="15">
-        <v>9</v>
-      </c>
-      <c r="G25" s="16">
-        <v>0.9</v>
-      </c>
-      <c r="H25" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="I25" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="P25" s="22"/>
-      <c r="AE25" s="1"/>
-      <c r="AF25" s="1"/>
-      <c r="AG25" s="1"/>
-      <c r="AH25" s="1"/>
-      <c r="AI25" s="1"/>
-      <c r="AJ25" s="1"/>
-      <c r="AK25" s="1"/>
-      <c r="AL25" s="1"/>
-      <c r="AM25" s="1"/>
-      <c r="AN25" s="1"/>
-      <c r="AO25" s="1"/>
-      <c r="AP25" s="1"/>
-      <c r="AQ25" s="1"/>
-      <c r="AR25" s="1"/>
-      <c r="AS25" s="1"/>
-      <c r="AT25" s="1"/>
-    </row>
-    <row r="26" spans="1:46" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="29" t="s">
-        <v>52</v>
-      </c>
-      <c r="C26" s="15">
-        <v>3</v>
-      </c>
-      <c r="D26" s="15">
-        <v>3</v>
-      </c>
-      <c r="E26" s="15">
-        <v>4</v>
-      </c>
-      <c r="F26" s="15">
-        <v>3</v>
-      </c>
-      <c r="G26" s="16">
-        <v>1</v>
-      </c>
-      <c r="H26" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="I26" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="P26" s="22"/>
-      <c r="AE26" s="1"/>
-      <c r="AF26" s="1"/>
-      <c r="AG26" s="1"/>
-      <c r="AH26" s="1"/>
-      <c r="AI26" s="1"/>
-      <c r="AJ26" s="1"/>
-      <c r="AK26" s="1"/>
-      <c r="AL26" s="1"/>
-      <c r="AM26" s="1"/>
-      <c r="AN26" s="1"/>
-      <c r="AO26" s="1"/>
-      <c r="AP26" s="1"/>
-      <c r="AQ26" s="1"/>
-      <c r="AR26" s="1"/>
-      <c r="AS26" s="1"/>
-      <c r="AT26" s="1"/>
-    </row>
-    <row r="27" spans="1:46" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="29" t="s">
-        <v>69</v>
-      </c>
-      <c r="C27" s="15">
-        <v>4</v>
-      </c>
-      <c r="D27" s="15">
-        <v>2</v>
-      </c>
-      <c r="E27" s="15">
-        <v>3</v>
-      </c>
-      <c r="F27" s="15">
-        <v>5</v>
-      </c>
-      <c r="G27" s="16">
-        <v>1</v>
-      </c>
-      <c r="H27" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="I27" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="P27" s="22"/>
-      <c r="AE27" s="1"/>
-      <c r="AF27" s="1"/>
-      <c r="AG27" s="1"/>
-      <c r="AH27" s="1"/>
-      <c r="AI27" s="1"/>
-      <c r="AJ27" s="1"/>
-      <c r="AK27" s="1"/>
-      <c r="AL27" s="1"/>
-      <c r="AM27" s="1"/>
-      <c r="AN27" s="1"/>
-      <c r="AO27" s="1"/>
-      <c r="AP27" s="1"/>
-      <c r="AQ27" s="1"/>
-      <c r="AR27" s="1"/>
-      <c r="AS27" s="1"/>
-      <c r="AT27" s="1"/>
-    </row>
-    <row r="28" spans="1:46" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="29" t="s">
-        <v>53</v>
-      </c>
-      <c r="C28" s="15">
-        <v>4</v>
-      </c>
-      <c r="D28" s="15">
-        <v>6</v>
-      </c>
-      <c r="E28" s="15">
-        <v>3</v>
-      </c>
-      <c r="F28" s="15">
-        <v>9</v>
-      </c>
-      <c r="G28" s="16">
-        <v>1</v>
-      </c>
-      <c r="H28" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="I28" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="P28" s="22"/>
-      <c r="AE28" s="1"/>
-      <c r="AF28" s="1"/>
-      <c r="AG28" s="1"/>
-      <c r="AH28" s="1"/>
-      <c r="AI28" s="1"/>
-      <c r="AJ28" s="1"/>
-      <c r="AK28" s="1"/>
-      <c r="AL28" s="1"/>
-      <c r="AM28" s="1"/>
-      <c r="AN28" s="1"/>
-      <c r="AO28" s="1"/>
-      <c r="AP28" s="1"/>
-      <c r="AQ28" s="1"/>
-      <c r="AR28" s="1"/>
-      <c r="AS28" s="1"/>
-      <c r="AT28" s="1"/>
-    </row>
-    <row r="29" spans="1:46" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="29" t="s">
-        <v>70</v>
-      </c>
-      <c r="C29" s="15">
-        <v>9</v>
-      </c>
-      <c r="D29" s="15">
-        <v>3</v>
-      </c>
-      <c r="E29" s="15">
-        <v>6</v>
-      </c>
-      <c r="F29" s="15">
-        <v>6</v>
-      </c>
-      <c r="G29" s="16">
-        <v>0.6</v>
-      </c>
-      <c r="H29" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="I29" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="P29" s="22"/>
-      <c r="AE29" s="1"/>
-      <c r="AF29" s="1"/>
-      <c r="AG29" s="1"/>
-      <c r="AH29" s="1"/>
-      <c r="AI29" s="1"/>
-      <c r="AJ29" s="1"/>
-      <c r="AK29" s="1"/>
-      <c r="AL29" s="1"/>
-      <c r="AM29" s="1"/>
-      <c r="AN29" s="1"/>
-      <c r="AO29" s="1"/>
-      <c r="AP29" s="1"/>
-      <c r="AQ29" s="1"/>
-      <c r="AR29" s="1"/>
-      <c r="AS29" s="1"/>
-      <c r="AT29" s="1"/>
-    </row>
-    <row r="30" spans="1:46" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="29" t="s">
-        <v>54</v>
-      </c>
-      <c r="C30" s="15">
-        <v>5</v>
-      </c>
-      <c r="D30" s="15">
-        <v>6</v>
-      </c>
-      <c r="E30" s="15">
-        <v>8</v>
-      </c>
-      <c r="F30" s="15">
-        <v>4</v>
-      </c>
-      <c r="G30" s="16">
-        <v>0.6</v>
-      </c>
-      <c r="H30" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="I30" s="16" t="s">
-        <v>79</v>
-      </c>
-      <c r="P30" s="22"/>
-      <c r="AE30" s="1"/>
-      <c r="AF30" s="1"/>
-      <c r="AG30" s="1"/>
-      <c r="AH30" s="1"/>
-      <c r="AI30" s="1"/>
-      <c r="AJ30" s="1"/>
-      <c r="AK30" s="1"/>
-      <c r="AL30" s="1"/>
-      <c r="AM30" s="1"/>
-      <c r="AN30" s="1"/>
-      <c r="AO30" s="1"/>
-      <c r="AP30" s="1"/>
-      <c r="AQ30" s="1"/>
-      <c r="AR30" s="1"/>
-      <c r="AS30" s="1"/>
-      <c r="AT30" s="1"/>
-    </row>
-    <row r="31" spans="1:46" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="29" t="s">
-        <v>55</v>
-      </c>
-      <c r="C31" s="15">
-        <v>5</v>
-      </c>
-      <c r="D31" s="15">
-        <v>3</v>
-      </c>
-      <c r="E31" s="15">
-        <v>7</v>
-      </c>
-      <c r="F31" s="15">
-        <v>5</v>
-      </c>
-      <c r="G31" s="16">
-        <v>0.9</v>
-      </c>
-      <c r="H31" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="I31" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="P31" s="22"/>
-      <c r="AE31" s="1"/>
-      <c r="AF31" s="1"/>
-      <c r="AG31" s="1"/>
-      <c r="AH31" s="1"/>
-      <c r="AI31" s="1"/>
-      <c r="AJ31" s="1"/>
-      <c r="AK31" s="1"/>
-      <c r="AL31" s="1"/>
-      <c r="AM31" s="1"/>
-      <c r="AN31" s="1"/>
-      <c r="AO31" s="1"/>
-      <c r="AP31" s="1"/>
-      <c r="AQ31" s="1"/>
-      <c r="AR31" s="1"/>
-      <c r="AS31" s="1"/>
-      <c r="AT31" s="1"/>
-    </row>
-    <row r="32" spans="1:46" x14ac:dyDescent="0.3">
-      <c r="B32" s="24" t="s">
-        <v>56</v>
-      </c>
-      <c r="C32" s="25"/>
-      <c r="D32" s="25"/>
-      <c r="E32" s="25"/>
-      <c r="F32" s="25"/>
-      <c r="G32" s="26"/>
-      <c r="H32" s="26"/>
-      <c r="I32" s="26"/>
-      <c r="J32" s="25"/>
-      <c r="K32" s="25"/>
-      <c r="L32" s="27">
-        <v>42283</v>
-      </c>
-      <c r="M32" s="27">
-        <v>42290</v>
-      </c>
-      <c r="N32" s="27">
-        <v>42297</v>
-      </c>
-      <c r="O32" s="25"/>
-      <c r="P32" s="27">
-        <v>42312</v>
-      </c>
-      <c r="Q32" s="27">
-        <v>42317</v>
-      </c>
-      <c r="R32" s="25"/>
-      <c r="S32" s="25"/>
-      <c r="T32" s="25"/>
-      <c r="U32" s="27">
-        <v>42347</v>
-      </c>
-      <c r="V32" s="27">
-        <v>42352</v>
-      </c>
-    </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B33" s="24" t="s">
+    <row r="25" spans="2:46" x14ac:dyDescent="0.3">
+      <c r="B25" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="C25" s="23"/>
+      <c r="D25" s="23"/>
+      <c r="E25" s="23"/>
+      <c r="F25" s="23"/>
+      <c r="G25" s="24"/>
+      <c r="H25" s="24"/>
+      <c r="I25" s="24"/>
+      <c r="J25" s="23"/>
+      <c r="K25" s="23"/>
+      <c r="L25" s="25">
+        <v>42417</v>
+      </c>
+      <c r="M25" s="25"/>
+      <c r="N25" s="25">
+        <v>42430</v>
+      </c>
+      <c r="O25" s="25">
+        <v>42437</v>
+      </c>
+      <c r="P25" s="25"/>
+      <c r="Q25" s="25"/>
+      <c r="R25" s="23"/>
+      <c r="S25" s="23"/>
+      <c r="T25" s="23"/>
+      <c r="U25" s="25"/>
+      <c r="V25" s="25">
+        <v>42500</v>
+      </c>
+      <c r="W25" s="25">
+        <v>42507</v>
+      </c>
+    </row>
+    <row r="26" spans="2:46" x14ac:dyDescent="0.3">
+      <c r="B26" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="C26" s="23"/>
+      <c r="D26" s="23"/>
+      <c r="E26" s="23"/>
+      <c r="F26" s="23"/>
+      <c r="G26" s="24"/>
+      <c r="H26" s="24"/>
+      <c r="I26" s="24"/>
+      <c r="J26" s="23"/>
+      <c r="K26" s="23"/>
+      <c r="L26" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="M26" s="23"/>
+      <c r="N26" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="O26" s="23"/>
+      <c r="P26" s="23"/>
+      <c r="Q26" s="23"/>
+      <c r="R26" s="23"/>
+      <c r="S26" s="23"/>
+      <c r="T26" s="23"/>
+      <c r="U26" s="23"/>
+      <c r="V26" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="W26" s="23" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="27" spans="2:46" x14ac:dyDescent="0.3">
+      <c r="B27" s="22"/>
+      <c r="C27" s="23"/>
+      <c r="D27" s="23"/>
+      <c r="E27" s="23"/>
+      <c r="F27" s="23"/>
+      <c r="G27" s="24"/>
+      <c r="H27" s="24"/>
+      <c r="I27" s="24"/>
+      <c r="J27" s="23"/>
+      <c r="K27" s="23"/>
+      <c r="L27" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="M27" s="23"/>
+      <c r="N27" s="23"/>
+      <c r="O27" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="C33" s="25"/>
-      <c r="D33" s="25"/>
-      <c r="E33" s="25"/>
-      <c r="F33" s="25"/>
-      <c r="G33" s="26"/>
-      <c r="H33" s="26"/>
-      <c r="I33" s="26"/>
-      <c r="J33" s="25"/>
-      <c r="K33" s="25"/>
-      <c r="L33" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="M33" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="N33" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="O33" s="25"/>
-      <c r="P33" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q33" s="25" t="s">
-        <v>23</v>
-      </c>
-      <c r="R33" s="25"/>
-      <c r="S33" s="25"/>
-      <c r="T33" s="25"/>
-      <c r="U33" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="V33" s="25" t="s">
+      <c r="P27" s="23"/>
+      <c r="Q27" s="23"/>
+      <c r="R27" s="23"/>
+      <c r="S27" s="23"/>
+      <c r="T27" s="23"/>
+      <c r="U27" s="23"/>
+      <c r="V27" s="23"/>
+      <c r="W27" s="23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="28" spans="2:46" x14ac:dyDescent="0.3">
+      <c r="B28" s="22"/>
+      <c r="C28" s="23"/>
+      <c r="D28" s="23"/>
+      <c r="E28" s="23"/>
+      <c r="F28" s="23"/>
+      <c r="G28" s="24"/>
+      <c r="H28" s="24"/>
+      <c r="I28" s="24"/>
+      <c r="J28" s="23"/>
+      <c r="K28" s="23"/>
+      <c r="L28" s="23"/>
+      <c r="M28" s="23"/>
+      <c r="N28" s="23"/>
+      <c r="O28" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="P28" s="23"/>
+      <c r="Q28" s="23"/>
+      <c r="R28" s="23"/>
+      <c r="S28" s="23"/>
+      <c r="T28" s="23"/>
+      <c r="U28" s="23"/>
+      <c r="V28" s="23"/>
+      <c r="W28" s="23"/>
+    </row>
+    <row r="29" spans="2:46" x14ac:dyDescent="0.3">
+      <c r="B29" s="22" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B34" s="24"/>
-      <c r="C34" s="25"/>
-      <c r="D34" s="25"/>
-      <c r="E34" s="25"/>
-      <c r="F34" s="25"/>
-      <c r="G34" s="26"/>
-      <c r="H34" s="26"/>
-      <c r="I34" s="26"/>
-      <c r="J34" s="25"/>
-      <c r="K34" s="25"/>
-      <c r="L34" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="M34" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="N34" s="25"/>
-      <c r="O34" s="25"/>
-      <c r="P34" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q34" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="R34" s="25"/>
-      <c r="S34" s="25"/>
-      <c r="T34" s="25"/>
-      <c r="U34" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="V34" s="25" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B35" s="24"/>
-      <c r="C35" s="25"/>
-      <c r="D35" s="25"/>
-      <c r="E35" s="25"/>
-      <c r="F35" s="25"/>
-      <c r="G35" s="26"/>
-      <c r="H35" s="26"/>
-      <c r="I35" s="26"/>
-      <c r="J35" s="25"/>
-      <c r="K35" s="25"/>
-      <c r="L35" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="M35" s="25"/>
-      <c r="N35" s="25"/>
-      <c r="O35" s="25"/>
-      <c r="P35" s="25"/>
-      <c r="Q35" s="25"/>
-      <c r="R35" s="25"/>
-      <c r="S35" s="25"/>
-      <c r="T35" s="25"/>
-      <c r="U35" s="25"/>
-      <c r="V35" s="25"/>
-    </row>
-    <row r="36" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B36" s="24" t="s">
-        <v>57</v>
-      </c>
-      <c r="C36" s="25"/>
-      <c r="D36" s="25"/>
-      <c r="E36" s="25"/>
-      <c r="F36" s="25"/>
-      <c r="G36" s="26"/>
-      <c r="H36" s="26"/>
-      <c r="I36" s="26"/>
-      <c r="J36" s="25"/>
-      <c r="K36" s="25"/>
-      <c r="L36" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="M36" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="N36" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="O36" s="25"/>
-      <c r="P36" s="25"/>
-      <c r="Q36" s="25"/>
-      <c r="R36" s="25"/>
-      <c r="S36" s="25"/>
-      <c r="T36" s="25"/>
-      <c r="U36" s="25"/>
-      <c r="V36" s="25"/>
+      <c r="C29" s="23"/>
+      <c r="D29" s="23"/>
+      <c r="E29" s="23"/>
+      <c r="F29" s="23"/>
+      <c r="G29" s="24"/>
+      <c r="H29" s="24"/>
+      <c r="I29" s="24"/>
+      <c r="J29" s="23"/>
+      <c r="K29" s="23"/>
+      <c r="L29" s="23"/>
+      <c r="M29" s="23"/>
+      <c r="N29" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="O29" s="23"/>
+      <c r="P29" s="23"/>
+      <c r="Q29" s="23"/>
+      <c r="R29" s="23"/>
+      <c r="S29" s="23"/>
+      <c r="T29" s="23"/>
+      <c r="U29" s="23"/>
+      <c r="V29" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="W29" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B2:G4"/>
   </mergeCells>
-  <conditionalFormatting sqref="K9:V31">
-    <cfRule type="expression" dxfId="8" priority="4">
+  <conditionalFormatting sqref="K9:X24">
+    <cfRule type="expression" dxfId="9" priority="13">
       <formula>PercentageVoltooid</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="6">
+    <cfRule type="expression" dxfId="8" priority="15">
       <formula>PercentageVoltooidNa</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="7">
+    <cfRule type="expression" dxfId="7" priority="16">
       <formula>Werkelijk</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="8">
+    <cfRule type="expression" dxfId="6" priority="17">
       <formula>WerkelijkNa</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="9">
+    <cfRule type="expression" dxfId="5" priority="18">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="10">
+    <cfRule type="expression" dxfId="4" priority="19">
       <formula>K$8=periode_geselecteerd</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="14">
+    <cfRule type="expression" dxfId="3" priority="23">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="15">
+    <cfRule type="expression" dxfId="2" priority="24">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K8:V8">
-    <cfRule type="expression" dxfId="0" priority="11">
+    <cfRule type="expression" dxfId="1" priority="20">
       <formula>K$8=periode_geselecteerd</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W8:X8">
+    <cfRule type="expression" dxfId="0" priority="7">
+      <formula>W$8=periode_geselecteerd</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.45" right="0.45" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
